--- a/salidas/importancia_caracteristicas.xlsx
+++ b/salidas/importancia_caracteristicas.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.1295368507353793</v>
+        <v>0.1985302632103274</v>
       </c>
     </row>
     <row r="3">
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.08799956469464287</v>
+        <v>0.07051178067772131</v>
       </c>
     </row>
     <row r="4">
@@ -472,7 +472,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.1198550103403469</v>
+        <v>0.09135802690544266</v>
       </c>
     </row>
     <row r="5">
@@ -482,7 +482,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.06697152564916899</v>
+        <v>0.07884367466749315</v>
       </c>
     </row>
     <row r="6">
@@ -492,7 +492,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.0508628932870214</v>
+        <v>0.05831126857758154</v>
       </c>
     </row>
     <row r="7">
@@ -502,7 +502,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.09773646314484247</v>
+        <v>0.2053996978402287</v>
       </c>
     </row>
     <row r="8">
@@ -512,7 +512,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.0536379616010401</v>
+        <v>0.04037364501278144</v>
       </c>
     </row>
     <row r="9">
@@ -522,7 +522,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.007703615335226078</v>
+        <v>0.01768750174309932</v>
       </c>
     </row>
     <row r="10">
@@ -532,7 +532,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.02028566725180163</v>
+        <v>0.04106457644956333</v>
       </c>
     </row>
     <row r="11">
@@ -542,7 +542,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.01427169375172576</v>
+        <v>0.007702097265798249</v>
       </c>
     </row>
     <row r="12">
@@ -552,7 +552,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.01273914272742246</v>
+        <v>0.009850818203462971</v>
       </c>
     </row>
     <row r="13">
@@ -562,7 +562,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.01560078186926895</v>
+        <v>0.007319759420722561</v>
       </c>
     </row>
     <row r="14">
@@ -572,7 +572,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.01630244875408279</v>
+        <v>0.00555431935924194</v>
       </c>
     </row>
     <row r="15">
@@ -582,7 +582,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.01031818839724577</v>
+        <v>0.003429277899047992</v>
       </c>
     </row>
     <row r="16">
@@ -592,7 +592,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.006629286701194504</v>
+        <v>0.0009206962261112259</v>
       </c>
     </row>
     <row r="17">
@@ -602,7 +602,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.01469195409672448</v>
+        <v>0.002373580072353192</v>
       </c>
     </row>
     <row r="18">
@@ -612,7 +612,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.006590774315033365</v>
+        <v>0.003533707126936534</v>
       </c>
     </row>
     <row r="19">
@@ -622,7 +622,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.00957740364730615</v>
+        <v>0.005932675035048186</v>
       </c>
     </row>
     <row r="20">
@@ -632,7 +632,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.01019849909093386</v>
+        <v>0.002055157340565953</v>
       </c>
     </row>
     <row r="21">
@@ -642,7 +642,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.0162180857402235</v>
+        <v>0.004296674976654855</v>
       </c>
     </row>
     <row r="22">
@@ -652,7 +652,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.01934718128707482</v>
+        <v>0.00897576160025103</v>
       </c>
     </row>
     <row r="23">
@@ -662,7 +662,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.008716654527587277</v>
+        <v>0.001947622358054774</v>
       </c>
     </row>
     <row r="24">
@@ -672,7 +672,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.01732406789998353</v>
+        <v>0.01646038250350941</v>
       </c>
     </row>
     <row r="25">
@@ -682,7 +682,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.01521112340792033</v>
+        <v>0.006409895845041287</v>
       </c>
     </row>
     <row r="26">
@@ -692,7 +692,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.01754313217202622</v>
+        <v>0.006494146809738792</v>
       </c>
     </row>
     <row r="27">
@@ -702,7 +702,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.01533566452658157</v>
+        <v>0.03433037283057662</v>
       </c>
     </row>
     <row r="28">
@@ -712,7 +712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.01818101749094209</v>
+        <v>0.02850992196633664</v>
       </c>
     </row>
     <row r="29">
@@ -722,7 +722,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.01612972373276513</v>
+        <v>0.002229770231648378</v>
       </c>
     </row>
     <row r="30">
@@ -732,7 +732,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.01984073191219611</v>
+        <v>0.01469859270229103</v>
       </c>
     </row>
     <row r="31">
@@ -742,7 +742,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.01240083548584291</v>
+        <v>0.002691075316839424</v>
       </c>
     </row>
     <row r="32">
@@ -752,7 +752,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.01186288002979433</v>
+        <v>0.005374440661806459</v>
       </c>
     </row>
     <row r="33">
@@ -762,7 +762,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.0170281320694233</v>
+        <v>0.004084052630548021</v>
       </c>
     </row>
     <row r="34">
@@ -772,7 +772,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.02053791055410927</v>
+        <v>0.008427016977270147</v>
       </c>
     </row>
     <row r="35">
@@ -782,7 +782,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.01845973192827966</v>
+        <v>0.003779819723594307</v>
       </c>
     </row>
     <row r="36">
@@ -792,7 +792,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0.004353401844842212</v>
+        <v>0.000537929832311278</v>
       </c>
     </row>
   </sheetData>
